--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>n_inscrição</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lattes_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>researcher_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>lattes_id</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -511,27 +511,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eba4e425-ad72-4496-bd91-da6826e0fc36</t>
+          <t>30039.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Adelson Aparecido Scotti</t>
+          <t>6115250850456738</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1532382149840480</t>
+          <t>4dada95a-d8bd-4209-9967-adb6e1534c21</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -555,7 +555,7 @@
         <v>0.5</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -564,45 +564,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>39a0a989-e3fb-4eee-b0ca-13490591c152</t>
+          <t>30005.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Adriana Carneiro da Silva</t>
+          <t>1532382149840480</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3595525369319937</t>
+          <t>eba4e425-ad72-4496-bd91-da6826e0fc36</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G3" t="n">
         <v>0.5</v>
       </c>
       <c r="H3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0.5</v>
@@ -617,27 +617,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>d32ed847-6e40-419b-b349-017925cc2cf1</t>
+          <t>29926.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ana Clara Sousa e Silva</t>
+          <t>7688168491377009</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4106427513230655</t>
+          <t>c9c5a9ea-deef-4eab-80ee-1ab62a97eb48</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -652,16 +652,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -670,17 +670,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cda792c5-0797-4228-9072-fbc53844b839</t>
+          <t>29846.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ana Claudia Moura Teixeira Guerra</t>
+          <t>3595525369319937</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3392160930608550</t>
+          <t>39a0a989-e3fb-4eee-b0ca-13490591c152</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -693,10 +693,10 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -723,39 +723,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4d80d786-7ff3-4945-bbb1-278c654372aa</t>
+          <t>30235.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Andreia Rodrigues Souza de Azevedo</t>
+          <t>7076222984372863</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6170187507430346</t>
+          <t>72632b9b-8147-49c8-94e7-8a07562f04ff</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -776,24 +776,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04fcd384-8ce2-4f12-a437-3e083a98778b</t>
+          <t>30314.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Andreia Santos Ribeiro Silva</t>
+          <t>5617331279709448</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7083689030253215</t>
+          <t>f259cacd-6095-41ff-bb14-384099392165</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0.5</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -829,27 +829,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>421f1ba0-fabc-4168-9860-3c6b0eaa8cb0</t>
+          <t>30145.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Betânia Oliveira da Silva</t>
+          <t>3463862274510571</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5527739130224648</t>
+          <t>ddf130cf-9d48-4e06-bb80-148133166ad5</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>1.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0.75</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -882,17 +882,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>c708ba75-76ec-4a71-9ff6-50d1ace1610c</t>
+          <t>30253.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Carla Oliveira Brito</t>
+          <t>4106427513230655</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2282038583394458</t>
+          <t>d32ed847-6e40-419b-b349-017925cc2cf1</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -905,22 +905,22 @@
         <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N9" t="n">
         <v>0.5</v>
@@ -935,17 +935,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>050de8e7-bba3-4be4-9559-be8d78f570bf</t>
+          <t>30083.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cristiane Sousa Santos</t>
+          <t>3392160930608550</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2398399131852968</t>
+          <t>cda792c5-0797-4228-9072-fbc53844b839</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -955,7 +955,7 @@
         <v>0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -964,22 +964,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
@@ -988,17 +988,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>e248fd1b-a258-4e87-b267-be444dd67d99</t>
+          <t>30424.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Daniela Guimarães Morozini</t>
+          <t>9542180049705068</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0900308318303815</t>
+          <t>3d3762a9-5ba6-4e00-bdd2-eacbd8f69f0a</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -1041,24 +1041,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>910bfbd5-2060-423a-8fbf-40798801bbd7</t>
+          <t>29910.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Denise Cerqueira da Silva</t>
+          <t>5457086887304133</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6676593364173088</t>
+          <t>0d30248c-1ace-464c-8a00-bb517b6cc462</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>1.5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
         <v>0.5</v>
@@ -1073,16 +1073,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1094,24 +1094,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5c76b556-8693-48f1-bce8-5ab98defc4a3</t>
+          <t>30248.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vanildo dos Santos Silva</t>
+          <t>1926776218860083</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1848411883987569</t>
+          <t>77482f69-69b7-4797-a22c-e48bcc92c76c</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>1.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G13" t="n">
         <v>0.25</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1147,33 +1147,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30cf9e4b-a3f1-4a93-baff-6e71a52cb7df</t>
+          <t>29975.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Diego Emanoel Sousa Gonçalves</t>
+          <t>6765896196559529</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3090884099500320</t>
+          <t>eb497ecf-ce7b-4522-974d-b437c395168b</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1182,16 +1182,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1200,17 +1200,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>78c5e71a-3083-454f-93f8-b772fd5f2c56</t>
+          <t>30415.0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Edmara de Queiroz Rocha</t>
+          <t>2869651121900787</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9735851126219003</t>
+          <t>58f1421c-f203-4e01-add4-596e14e95ee5</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1220,10 +1220,10 @@
         <v>0.25</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I15" t="n">
         <v>0.5</v>
@@ -1235,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1253,24 +1253,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2f95a1f8-0304-430e-88a8-ee1975e4219b</t>
+          <t>30410.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Everton Leandro Lazaro Suzart</t>
+          <t>2316248712559948</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4001819714554962</t>
+          <t>05430934-100c-4993-9de8-42bc602c981e</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>1.5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G16" t="n">
         <v>0.5</v>
@@ -1279,22 +1279,22 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1306,27 +1306,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>339d066d-2508-473c-adde-a77c27c0de56</t>
+          <t>30197.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fernando Henrique Puertas Gonçalves</t>
+          <t>6170187507430346</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2468426961022594</t>
+          <t>4d80d786-7ff3-4945-bbb1-278c654372aa</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>1.5</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1359,17 +1359,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>92fd576b-deca-4dce-bd56-f0eb8c109d1b</t>
+          <t>30063.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Basilon Azevedo de Carvalho</t>
+          <t>7083689030253215</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2560366043638695</t>
+          <t>04fcd384-8ce2-4f12-a437-3e083a98778b</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1379,7 +1379,7 @@
         <v>0.25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0.5</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1412,27 +1412,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>b5c4e2c2-6071-40f2-b339-85c7a83f9525</t>
+          <t>30292.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Flaminia Mastrangeli</t>
+          <t>9405560034475587</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3564765571145812</t>
+          <t>05c4c40f-075d-437f-a040-8e0e15939aab</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>1.5</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1441,22 +1441,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
@@ -1465,33 +1465,33 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bd44b44e-b604-4189-8c12-47c921eaa53e</t>
+          <t>30170.0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fábio Fonseca Barbosa Gomes</t>
+          <t>2560366043638695</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9438301158078371</t>
+          <t>92fd576b-deca-4dce-bd56-f0eb8c109d1b</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>1.5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G20" t="n">
         <v>0.25</v>
       </c>
       <c r="H20" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1518,17 +1518,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>804d8b30-2fd7-4dcf-a1e8-a1ab4e3ed765</t>
+          <t>29417.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hilmara Silva dos Santos</t>
+          <t>5527739130224648</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4084281428785964</t>
+          <t>421f1ba0-fabc-4168-9860-3c6b0eaa8cb0</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1538,28 +1538,28 @@
         <v>0.5</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L21" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1571,24 +1571,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>f73f4ecc-72aa-4089-94fb-caf738e3136f</t>
+          <t>30328.0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ilca Guimarães da Silva</t>
+          <t>2121005351639004</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3869251296016046</t>
+          <t>d6dbfea9-338f-4f02-9d1c-d8b73473a7b7</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>1.5</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1624,39 +1624,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>a9f828a1-37f2-46b2-a9aa-c54bdf95bbf9</t>
+          <t>29980.0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Jagleyde Firmino Rodrigues Lima</t>
+          <t>2282038583394458</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8564896284540795</t>
+          <t>c708ba75-76ec-4a71-9ff6-50d1ace1610c</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>1.5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0.5</v>
       </c>
       <c r="I23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
@@ -1677,17 +1677,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>c14e9de2-9433-4be5-ac53-80db3461a91f</t>
+          <t>30258.0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jamile Nascimento do Sacramento</t>
+          <t>4867319019846383</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4332037750453323</t>
+          <t>52b61939-e72b-4e95-8fa9-75d0bfe68506</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1697,7 +1697,7 @@
         <v>0.5</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1730,30 +1730,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4c16b43f-06f1-4483-8715-7d65bdb89675</t>
+          <t>29820.0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Thais Braz Duarte</t>
+          <t>5350080903787960</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3272895274133839</t>
+          <t>edc1b452-847e-46dd-a5eb-7e0c2f1e9ac2</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>1.5</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1783,27 +1783,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>36fe3315-4d88-4000-80aa-cde8598b7006</t>
+          <t>30073.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>José Antônio da Silva Filho</t>
+          <t>1654247340431084</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3181981735754381</t>
+          <t>81df948b-c422-47ef-a183-8d9420257347</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>1.5</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G26" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3591db45-dadf-4ed4-83c2-9251679d6933</t>
+          <t>30098.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Kátia Souza de Lima Ramos</t>
+          <t>2907442550222651</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5172239483415921</t>
+          <t>b4a66e27-768b-4e35-91db-dd1ee69224de</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1856,28 +1856,28 @@
         <v>0.5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1889,17 +1889,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>75d1ad54-38f2-47e0-a380-1c3ecefbba48</t>
+          <t>30345.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Magalí de Oliveira Sacramento</t>
+          <t>2398399131852968</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8010372830615215</t>
+          <t>050de8e7-bba3-4be4-9559-be8d78f570bf</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1909,7 +1909,7 @@
         <v>0.5</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1918,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O28" t="n">
         <v>0.5</v>
@@ -1942,24 +1942,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7eedd639-109a-4746-bafa-9db4490c02b8</t>
+          <t>30136.0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Valéria da Silva Oliveira e Oliveira</t>
+          <t>1835838686624525</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3052392024131728</t>
+          <t>79f6fcd3-d417-4a65-ac4a-555c927929d4</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>1.5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G29" t="n">
         <v>0.5</v>
@@ -1977,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N29" t="n">
         <v>0.5</v>
       </c>
       <c r="O29" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1995,30 +1995,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0565febc-9b49-4947-b477-8495eb114420</t>
+          <t>30392.0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Marcelo de Araujo Lino</t>
+          <t>0900308318303815</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8103958441201734</t>
+          <t>e248fd1b-a258-4e87-b267-be444dd67d99</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>1.5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2048,51 +2048,51 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>fb825259-3bed-4c93-bf5e-da3000c06df4</t>
+          <t>29536.0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Marcus Drummond Celestino Silva</t>
+          <t>6530721425030240</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8953265266905110</t>
+          <t>c8e443c7-5122-4b7d-8295-485e8e2ce906</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>1.5</v>
       </c>
       <c r="F31" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M31" t="n">
         <v>0.25</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O31" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2101,24 +2101,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>28055996-0ee3-4cf1-9022-83a0dbb43727</t>
+          <t>30393.0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Maria de Fátima Sacramento de Almeida Castro</t>
+          <t>6676593364173088</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2671025942514329</t>
+          <t>910bfbd5-2060-423a-8fbf-40798801bbd7</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>1.5</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G32" t="n">
         <v>0.5</v>
@@ -2130,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2154,30 +2154,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8a1bfa86-068c-4a6d-be4f-95b3c82e21e1</t>
+          <t>30309.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Maria Helena Conceição Vasconcelos</t>
+          <t>7870008528602676</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7880835669438317</t>
+          <t>70509aaa-64b0-4e61-8e17-b19b93018871</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>1.5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
@@ -2207,33 +2207,33 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>e741f850-4546-4e92-90c5-c250473a3568</t>
+          <t>30327.0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Marilia Rosa Andrade</t>
+          <t>3090884099500320</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2616230501364946</t>
+          <t>30cf9e4b-a3f1-4a93-baff-6e71a52cb7df</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>1.5</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0.5</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
@@ -2260,30 +2260,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>508174fe-2c36-4e8d-971c-c9b60496f67b</t>
+          <t>29280.0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Neide Maria Ferreira Lopes</t>
+          <t>4141341354239956</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4906208537110671</t>
+          <t>b33279e0-5f89-4226-9209-0555737825d2</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>1.5</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0.5</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N35" t="n">
         <v>0.5</v>
@@ -2313,17 +2313,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bb9e9531-c5ea-47ad-aad7-e01c73c7f49e</t>
+          <t>30375.0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Neubler Nilo Ribeiro Da Cunha</t>
+          <t>9735851126219003</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>9638272182181116</t>
+          <t>78c5e71a-3083-454f-93f8-b772fd5f2c56</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -2333,13 +2333,13 @@
         <v>0.25</v>
       </c>
       <c r="G36" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2348,13 +2348,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2366,30 +2366,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1fdc8cf7-1d32-42dc-9746-e0008dd8deeb</t>
+          <t>30225.0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Paulo de Tarso do Nascimento</t>
+          <t>0644693111325377</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6397272273720526</t>
+          <t>0351f565-e7ed-4e6c-af14-9b5bcde4216e</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>1.5</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2404,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2419,17 +2419,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>a4ec0c71-e798-4cec-b3d8-41da719cf992</t>
+          <t>30022.0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Qhele Jemima Pinheiro de Melo Barros</t>
+          <t>9926256319232775</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3910104636654817</t>
+          <t>0a77ecfa-a599-460f-acf5-d80755581ed0</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2442,10 +2442,10 @@
         <v>0.5</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I38" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>0.5</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39">
@@ -2472,17 +2472,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>d597b9f2-790d-4bad-8fd9-85061736358e</t>
+          <t>30341.0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rita de Cassia Oliveira Souza Santos</t>
+          <t>7684688467836964</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1815171097453688</t>
+          <t>cabc3e82-f7a2-4af2-8583-0f76c7a66b7d</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2492,10 +2492,10 @@
         <v>0.25</v>
       </c>
       <c r="G39" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2507,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2525,17 +2525,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4c7ab8fc-2f61-4259-8cc1-e2899a832a20</t>
+          <t>29857.0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Shirley de Souza Felix Suedde</t>
+          <t>4001819714554962</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2648645813273616</t>
+          <t>2f95a1f8-0304-430e-88a8-ee1975e4219b</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2548,28 +2548,28 @@
         <v>0.5</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O40" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2578,17 +2578,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>a5952b4d-e5d6-4168-995d-6a341c82995c</t>
+          <t>30001.0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Uilson Melo Barbosa Monteiro</t>
+          <t>9438301158078371</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9808498838256961</t>
+          <t>bd44b44e-b604-4189-8c12-47c921eaa53e</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2598,22 +2598,22 @@
         <v>0.5</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2631,27 +2631,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fa9fff2c-371e-41ed-94c6-4b8f9baca4bd</t>
+          <t>30361.0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Vana Hilma Veloso Carvalho</t>
+          <t>3007678388862431</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2575564610175228</t>
+          <t>4c657046-e6f3-413b-98f4-a1d6e37939df</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F42" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2672,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2684,17 +2684,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>68fd83d0-4ca0-4482-8598-8836002f5507</t>
+          <t>30275.0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Vanessa Souza Matos</t>
+          <t>0271665000284544</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2454311283646993</t>
+          <t>f9d0c72d-dc2c-48ca-ae57-0a5ba9cf81cb</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2704,10 +2704,10 @@
         <v>0.5</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L43" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0.5</v>
       </c>
       <c r="O43" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2737,17 +2737,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2b1eb2f7-4656-484e-bc2b-c4104005b980</t>
+          <t>30389.0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Teirone Campos Silva</t>
+          <t>6853283703376207</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4793477546510255</t>
+          <t>863a1989-298d-4a33-9906-95516efa27c2</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2757,7 +2757,7 @@
         <v>0.5</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O44" t="n">
         <v>0.5</v>
@@ -2790,30 +2790,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cabc3e82-f7a2-4af2-8583-0f76c7a66b7d</t>
+          <t>30402.0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Érica Maria da Paixão Santana</t>
+          <t>2468426961022594</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7684688467836964</t>
+          <t>339d066d-2508-473c-adde-a77c27c0de56</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>1.5</v>
       </c>
       <c r="F45" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2822,16 +2822,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2843,17 +2843,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bc619992-152f-43fb-b5dd-25207ad4e32f</t>
+          <t>30408.0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Virginia Mota Lages Gomes</t>
+          <t>5565124542913905</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5371706875963852</t>
+          <t>90b55cd7-6ab5-4fd1-ae07-b28a858dc817</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2863,31 +2863,31 @@
         <v>0.25</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L46" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2896,36 +2896,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>86fe3127-feb2-4a5e-8d6d-cb2028306a5b</t>
+          <t>30259.0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ketchen Pâmela dos Santos Gouveia</t>
+          <t>3564765571145812</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6880938772963165</t>
+          <t>b5c4e2c2-6071-40f2-b339-85c7a83f9525</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>1.5</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0.5</v>
       </c>
       <c r="H47" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -2949,17 +2949,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>e21dd197-0db6-4f9f-9264-3a83c81ac3b6</t>
+          <t>30222.0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Uillis de Assis Santos</t>
+          <t>9438742284059849</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8877652983745586</t>
+          <t>f86beb08-09fd-4df9-a343-99226fbdab3d</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2969,7 +2969,7 @@
         <v>0.25</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2984,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O48" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3002,17 +3002,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6f66de21-c98c-42c9-a1f1-6ad4140ec90c</t>
+          <t>30228.0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Stela Marques Seixas Pimenta</t>
+          <t>1819156418353225</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>9086063273554635</t>
+          <t>c4e9afb0-97c8-46f2-9c8c-deaf295307d2</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -3028,7 +3028,7 @@
         <v>0.5</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0.5</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50">
@@ -3055,51 +3055,51 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3d3762a9-5ba6-4e00-bdd2-eacbd8f69f0a</t>
+          <t>29856.0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ana Paula da Silva Benítez</t>
+          <t>4084281428785964</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>9542180049705068</t>
+          <t>804d8b30-2fd7-4dcf-a1e8-a1ab4e3ed765</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>1.5</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O50" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3108,21 +3108,21 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0e78c718-f35d-45bd-97ec-1b44ec2e6dfd</t>
+          <t>30016.0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wildacy Gonçalves Ribeiro Evangelista</t>
+          <t>9306728137546003</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>9602045653269355</t>
+          <t>17df54b7-d83b-45c8-8533-62cf173c818b</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0.25</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -3143,16 +3143,16 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O51" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3161,17 +3161,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4dada95a-d8bd-4209-9967-adb6e1534c21</t>
+          <t>29948.0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Adaury Santana Marques Porto</t>
+          <t>3869251296016046</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6115250850456738</t>
+          <t>f73f4ecc-72aa-4089-94fb-caf738e3136f</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0.5</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53">
@@ -3214,17 +3214,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>c9c5a9ea-deef-4eab-80ee-1ab62a97eb48</t>
+          <t>30149.0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Adilio Livramento Santos</t>
+          <t>3941783042880180</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7688168491377009</t>
+          <t>5b9659e4-a1c8-4dad-88cf-76ef3e94b258</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -3234,31 +3234,31 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54">
@@ -3267,17 +3267,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>b4a66e27-768b-4e35-91db-dd1ee69224de</t>
+          <t>30153.0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cleiton da Silva Dantas</t>
+          <t>2335022128841188</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2907442550222651</t>
+          <t>54dd9a19-9733-4e80-85d1-5dda8b70a2b3</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -3302,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
         <v>0.75</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3320,30 +3320,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>72632b9b-8147-49c8-94e7-8a07562f04ff</t>
+          <t>30229.0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Aliana Alves de Souza</t>
+          <t>8564896284540795</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>7076222984372863</t>
+          <t>a9f828a1-37f2-46b2-a9aa-c54bdf95bbf9</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>1.5</v>
       </c>
       <c r="F55" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I55" t="n">
         <v>0.25</v>
@@ -3352,19 +3352,19 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3373,24 +3373,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>f259cacd-6095-41ff-bb14-384099392165</t>
+          <t>29934.0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Amadú N'Duro Baldé</t>
+          <t>4332037750453323</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5617331279709448</t>
+          <t>c14e9de2-9433-4be5-ac53-80db3461a91f</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G56" t="n">
         <v>0.5</v>
@@ -3402,19 +3402,19 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3426,48 +3426,48 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ddf130cf-9d48-4e06-bb80-148133166ad5</t>
+          <t>30324.0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ana Carolina Teles Garcia</t>
+          <t>6359668427863483</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3463862274510571</t>
+          <t>6b86a9fd-f66f-4aa9-9db4-6ea8fd0711fa</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>1.5</v>
       </c>
       <c r="F57" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3479,52 +3479,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>81df948b-c422-47ef-a183-8d9420257347</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Claudia Freitas Góes</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1654247340431084</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
+          <t>30321.0</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3532,17 +3502,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0d30248c-1ace-464c-8a00-bb517b6cc462</t>
+          <t>30256.0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ana Paula Rocha dos Santos</t>
+          <t>5983549405152970</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5457086887304133</t>
+          <t>b0153230-3517-4984-9773-358d8e83447a</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -3552,31 +3522,31 @@
         <v>0.5</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L59" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="60">
@@ -3585,17 +3555,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>05430934-100c-4993-9de8-42bc602c981e</t>
+          <t>29977.0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Andreia Ramos Santos</t>
+          <t>5706901251827458</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2316248712559948</t>
+          <t>c9d4d9c5-138d-4384-a788-3264f6abc3e8</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -3611,13 +3581,13 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -3626,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61">
@@ -3638,24 +3608,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>77482f69-69b7-4797-a22c-e48bcc92c76c</t>
+          <t>30421.0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>André Luís Rodrigues Santos</t>
+          <t>3181981735754381</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1926776218860083</t>
+          <t>36fe3315-4d88-4000-80aa-cde8598b7006</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>1.5</v>
       </c>
       <c r="F61" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0.25</v>
@@ -3667,19 +3637,19 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3691,21 +3661,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>eb497ecf-ce7b-4522-974d-b437c395168b</t>
+          <t>30320.0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Andréa Icó Moura</t>
+          <t>5382808580078282</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6765896196559529</t>
+          <t>7d6e09f8-fa0c-450c-a4c8-e2bfe09c8bf6</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F62" t="n">
         <v>0.5</v>
@@ -3717,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3744,17 +3714,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>58f1421c-f203-4e01-add4-596e14e95ee5</t>
+          <t>30318.0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Andréia Borges Andrade</t>
+          <t>3944350813354194</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2869651121900787</t>
+          <t>a3d8b495-1730-432d-9a0f-b992bcfe65d4</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -3767,19 +3737,19 @@
         <v>0.5</v>
       </c>
       <c r="H63" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3797,27 +3767,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>05c4c40f-075d-437f-a040-8e0e15939aab</t>
+          <t>30172.0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Antonio Santos Costa</t>
+          <t>3960585940622214</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>9405560034475587</t>
+          <t>c40d30f1-d72e-413f-83f5-5e57b8832410</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v>1.5</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G64" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3826,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L64" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O64" t="n">
         <v>0.2</v>
@@ -3850,48 +3820,48 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>70509aaa-64b0-4e61-8e17-b19b93018871</t>
+          <t>30317.0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Diego Cerqueira Montes</t>
+          <t>3814590832188961</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7870008528602676</t>
+          <t>35ef7a8c-8ec3-425e-ad7e-2990c5fd37a1</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>1.5</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O65" t="n">
         <v>0.5</v>
@@ -3903,39 +3873,39 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>d6dbfea9-338f-4f02-9d1c-d8b73473a7b7</t>
+          <t>30353.0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bruno César Pereira Leite</t>
+          <t>5172239483415921</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2121005351639004</t>
+          <t>3591db45-dadf-4ed4-83c2-9251679d6933</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v>1.5</v>
       </c>
       <c r="F66" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -3944,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -3956,17 +3926,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>52b61939-e72b-4e95-8fa9-75d0bfe68506</t>
+          <t>29809.0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Carlos Elber Ribeiro Machado</t>
+          <t>6880938772963165</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4867319019846383</t>
+          <t>86fe3127-feb2-4a5e-8d6d-cb2028306a5b</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3976,16 +3946,16 @@
         <v>0.5</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3997,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4009,30 +3979,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>edc1b452-847e-46dd-a5eb-7e0c2f1e9ac2</t>
+          <t>30122.0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Carolina Aparecida Pereira Alves</t>
+          <t>2882541545584636</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5350080903787960</t>
+          <t>57fcf58c-9f54-4f70-9c11-00eecdb6eb01</t>
         </is>
       </c>
       <c r="E68" t="n">
         <v>1.5</v>
       </c>
       <c r="F68" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -4041,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4050,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4062,24 +4032,24 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>79f6fcd3-d417-4a65-ac4a-555c927929d4</t>
+          <t>30371.0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Daniela Chagas Oliveira</t>
+          <t>0579995558462064</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1835838686624525</t>
+          <t>7b7eb25f-eda1-454b-ad08-2c8de3d768ce</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0.5</v>
@@ -4094,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L69" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
         <v>0.5</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70">
@@ -4115,51 +4085,51 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>c8e443c7-5122-4b7d-8295-485e8e2ce906</t>
+          <t>29952.0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dejalma Ferreira do Rosário</t>
+          <t>5325698507070353</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6530721425030240</t>
+          <t>3e6e597f-35da-489a-93b3-3b99589d1eb8</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v>1.5</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L70" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M70" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71">
@@ -4168,24 +4138,24 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>b33279e0-5f89-4226-9209-0555737825d2</t>
+          <t>30182.0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Edcley Vasconcelos Leite Serra</t>
+          <t>4907580412742160</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4141341354239956</t>
+          <t>d7e94865-30af-46d0-b0f8-fd7cf90582b1</t>
         </is>
       </c>
       <c r="E71" t="n">
         <v>1.5</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G71" t="n">
         <v>0.5</v>
@@ -4203,16 +4173,16 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="M71" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="72">
@@ -4221,30 +4191,30 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0351f565-e7ed-4e6c-af14-9b5bcde4216e</t>
+          <t>30338.0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Eduardo José dos Anjos Pitta</t>
+          <t>3037684716229693</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0644693111325377</t>
+          <t>c32204f3-6522-4357-97ab-4e6c83673924</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>1.5</v>
       </c>
       <c r="F72" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -4253,16 +4223,16 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M72" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4274,30 +4244,30 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0a77ecfa-a599-460f-acf5-d80755581ed0</t>
+          <t>30268.0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Elder Stroppa</t>
+          <t>8010372830615215</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9926256319232775</t>
+          <t>75d1ad54-38f2-47e0-a380-1c3ecefbba48</t>
         </is>
       </c>
       <c r="E73" t="n">
         <v>1.5</v>
       </c>
       <c r="F73" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G73" t="n">
         <v>0.5</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -4309,16 +4279,16 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0.5</v>
       </c>
       <c r="O73" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74">
@@ -4327,17 +4297,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>f9d0c72d-dc2c-48ca-ae57-0a5ba9cf81cb</t>
+          <t>29520.0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Fernanda de Souza Leal</t>
+          <t>9728651937987852</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0271665000284544</t>
+          <t>dcd9887c-4f50-4b8b-96e6-f9e1119866b8</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -4347,19 +4317,19 @@
         <v>0.5</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K74" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>1</v>
@@ -4368,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="75">
@@ -4380,17 +4350,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>863a1989-298d-4a33-9906-95516efa27c2</t>
+          <t>30359.0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Fernanda Pinheiro Aragão</t>
+          <t>2514531905832783</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>6853283703376207</t>
+          <t>055b534b-49fa-4936-bcb4-3f46dbe105c7</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -4400,7 +4370,7 @@
         <v>0.5</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4412,10 +4382,10 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -4433,51 +4403,51 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>90b55cd7-6ab5-4fd1-ae07-b28a858dc817</t>
+          <t>30405.0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Fernando José da Hora Lopes</t>
+          <t>8103958441201734</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5565124542913905</t>
+          <t>0565febc-9b49-4947-b477-8495eb114420</t>
         </is>
       </c>
       <c r="E76" t="n">
         <v>1.5</v>
       </c>
       <c r="F76" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I76" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77">
@@ -4486,24 +4456,24 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4c657046-e6f3-413b-98f4-a1d6e37939df</t>
+          <t>29807.0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Fábio Silva Brito</t>
+          <t>2404860708914513</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3007678388862431</t>
+          <t>177eb3d8-7b88-4cca-9202-2be848352513</t>
         </is>
       </c>
       <c r="E77" t="n">
         <v>1.5</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -4512,16 +4482,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -4539,17 +4509,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>f86beb08-09fd-4df9-a343-99226fbdab3d</t>
+          <t>30034.0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Glauciane da Silva Souza</t>
+          <t>4578054871416693</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>9438742284059849</t>
+          <t>ffea90f9-c994-4a91-a4df-0845bef89c8f</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -4580,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79">
@@ -4592,51 +4562,51 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>c4e9afb0-97c8-46f2-9c8c-deaf295307d2</t>
+          <t>29950.0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Gleisy Vieira Campos</t>
+          <t>8953265266905110</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1819156418353225</t>
+          <t>fb825259-3bed-4c93-bf5e-da3000c06df4</t>
         </is>
       </c>
       <c r="E79" t="n">
         <v>1.5</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G79" t="n">
         <v>0.5</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N79" t="n">
         <v>0.5</v>
       </c>
       <c r="O79" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="80">
@@ -4645,17 +4615,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7d6e09f8-fa0c-450c-a4c8-e2bfe09c8bf6</t>
+          <t>29816.0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Josué Vicente de Carvalho</t>
+          <t>7528312061751730</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5382808580078282</t>
+          <t>fd6653ea-a9a3-4178-8a98-6fb8ca85d459</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -4665,16 +4635,16 @@
         <v>0.5</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -4686,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -4698,36 +4668,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>17df54b7-d83b-45c8-8533-62cf173c818b</t>
+          <t>30247.0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Icaro de Araujo Juriti</t>
+          <t>2671025942514329</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>9306728137546003</t>
+          <t>28055996-0ee3-4cf1-9022-83a0dbb43727</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F81" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4739,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4751,42 +4721,42 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>5b9659e4-a1c8-4dad-88cf-76ef3e94b258</t>
+          <t>29605.0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Isabela da Silva Caldas Rodrigues</t>
+          <t>2671025942514329</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3941783042880180</t>
+          <t>28055996-0ee3-4cf1-9022-83a0dbb43727</t>
         </is>
       </c>
       <c r="E82" t="n">
         <v>1.5</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G82" t="n">
         <v>0.5</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
         <v>0.5</v>
       </c>
       <c r="K82" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -4795,7 +4765,7 @@
         <v>0.5</v>
       </c>
       <c r="O82" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4804,17 +4774,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>54dd9a19-9733-4e80-85d1-5dda8b70a2b3</t>
+          <t>29999.0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ivina Pereira Bitencourt</t>
+          <t>7880835669438317</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2335022128841188</t>
+          <t>8a1bfa86-068c-4a6d-be4f-95b3c82e21e1</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -4827,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -4839,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0.5</v>
@@ -4857,17 +4827,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>6b86a9fd-f66f-4aa9-9db4-6ea8fd0711fa</t>
+          <t>30303.0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Jean Carla de Lima</t>
+          <t>8587577174077201</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>6359668427863483</t>
+          <t>d8a23fd8-00c4-4bc8-8192-f5de59af313a</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -4877,13 +4847,13 @@
         <v>0.5</v>
       </c>
       <c r="G84" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>0.5</v>
@@ -4892,13 +4862,13 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -4910,39 +4880,39 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>b0153230-3517-4984-9773-358d8e83447a</t>
+          <t>30121.0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jordana Gabriela Barreto de Sá</t>
+          <t>2616230501364946</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>5983549405152970</t>
+          <t>e741f850-4546-4e92-90c5-c250473a3568</t>
         </is>
       </c>
       <c r="E85" t="n">
         <v>1.5</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -4951,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O85" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4963,17 +4933,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>c9d4d9c5-138d-4384-a788-3264f6abc3e8</t>
+          <t>30306.0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Jorge Adriano Carneiro Nunes</t>
+          <t>6570550297726092</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5706901251827458</t>
+          <t>aa15dd5c-47d5-44cb-b967-1d463457218d</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -4989,13 +4959,13 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -5004,10 +4974,10 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -5016,30 +4986,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>76192347-e242-4257-af76-65376a729df8</t>
+          <t>30089.0</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mayara Cristina Pinheiro de Avila</t>
+          <t>2076542004714578</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>7648138158891553</t>
+          <t>b5e8327d-3283-422e-99d3-76744adcea10</t>
         </is>
       </c>
       <c r="E87" t="n">
         <v>1.5</v>
       </c>
       <c r="F87" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -5048,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -5057,10 +5027,10 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O87" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -5069,17 +5039,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>a3d8b495-1730-432d-9a0f-b992bcfe65d4</t>
+          <t>30234.0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Juscelino Lima Rios</t>
+          <t>7648138158891553</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3944350813354194</t>
+          <t>76192347-e242-4257-af76-65376a729df8</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -5089,7 +5059,7 @@
         <v>0.25</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5098,22 +5068,22 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="89">
@@ -5122,17 +5092,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>c40d30f1-d72e-413f-83f5-5e57b8832410</t>
+          <t>29966.0</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Karla Reuter dos Reis</t>
+          <t>7797794535999769</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3960585940622214</t>
+          <t>9713784a-526a-4dc3-8546-1a2948676af9</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -5154,19 +5124,19 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O89" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90">
@@ -5175,17 +5145,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>35ef7a8c-8ec3-425e-ad7e-2990c5fd37a1</t>
+          <t>30025.0</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Katia Silene Lopes de Souza Albuquerque</t>
+          <t>4962862887127732</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3814590832188961</t>
+          <t>d8a85c00-7855-4747-9f35-86d0a0b2a788</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -5198,19 +5168,19 @@
         <v>0.5</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I90" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K90" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -5219,7 +5189,7 @@
         <v>0.5</v>
       </c>
       <c r="O90" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -5228,24 +5198,24 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>57fcf58c-9f54-4f70-9c11-00eecdb6eb01</t>
+          <t>30224.0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Keyla Cardoso Santana</t>
+          <t>9185071750290693</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2882541545584636</t>
+          <t>b58d8375-3086-448d-9c09-6edbd026526e</t>
         </is>
       </c>
       <c r="E91" t="n">
         <v>1.5</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G91" t="n">
         <v>0.5</v>
@@ -5260,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -5281,52 +5251,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7b7eb25f-eda1-454b-ad08-2c8de3d768ce</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Leandro Henrique do Ó Ponzi</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0579995558462064</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.5</v>
-      </c>
+          <t>30413.0</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5334,17 +5274,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>d7e94865-30af-46d0-b0f8-fd7cf90582b1</t>
+          <t>30116.0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Luciana Silva de Andrade</t>
+          <t>4718746179676362</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4907580412742160</t>
+          <t>54b2bed9-5dbb-4d1c-99be-1677341e6c16</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -5366,19 +5306,19 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L93" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O93" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -5387,27 +5327,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3e6e597f-35da-489a-93b3-3b99589d1eb8</t>
+          <t>30238.0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Lucélia Ramos Alcântara</t>
+          <t>8913942008827955</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>5325698507070353</t>
+          <t>d1ae991e-784d-4310-ad14-7ed8b24b656a</t>
         </is>
       </c>
       <c r="E94" t="n">
         <v>1.5</v>
       </c>
       <c r="F94" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5419,19 +5359,19 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O94" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -5440,17 +5380,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>c32204f3-6522-4357-97ab-4e6c83673924</t>
+          <t>30315.0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Madilene Gandarela Soares</t>
+          <t>4906208537110671</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3037684716229693</t>
+          <t>508174fe-2c36-4e8d-971c-c9b60496f67b</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -5472,16 +5412,16 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -5493,17 +5433,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>dcd9887c-4f50-4b8b-96e6-f9e1119866b8</t>
+          <t>30384.0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Magno Oliveira Ramos</t>
+          <t>9217864013785900</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>9728651937987852</t>
+          <t>63c213ad-9b6a-4bd7-b5cf-c6f18123a905</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -5516,16 +5456,16 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -5537,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5546,39 +5486,39 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>177eb3d8-7b88-4cca-9202-2be848352513</t>
+          <t>30255.0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Marcos Mauricio Gondim Gomes</t>
+          <t>9638272182181116</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2404860708914513</t>
+          <t>bb9e9531-c5ea-47ad-aad7-e01c73c7f49e</t>
         </is>
       </c>
       <c r="E97" t="n">
         <v>1.5</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>0.25</v>
@@ -5587,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -5599,30 +5539,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ffea90f9-c994-4a91-a4df-0845bef89c8f</t>
+          <t>30412.0</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Marcos Messias da Silva</t>
+          <t>0082112625423561</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>4578054871416693</t>
+          <t>fa0d8f01-12b2-49b6-8056-8ad64edcd2e5</t>
         </is>
       </c>
       <c r="E98" t="n">
         <v>1.5</v>
       </c>
       <c r="F98" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G98" t="n">
         <v>0.5</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -5631,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -5643,7 +5583,7 @@
         <v>0.5</v>
       </c>
       <c r="O98" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="99">
@@ -5652,17 +5592,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>055b534b-49fa-4936-bcb4-3f46dbe105c7</t>
+          <t>30024.0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Maria Auxiliadora Ribeiro Silva</t>
+          <t>3367242190409857</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2514531905832783</t>
+          <t>f0c98e61-b55f-4bc7-a88c-e6be1f57e23c</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -5684,10 +5624,10 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -5705,17 +5645,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>fd6653ea-a9a3-4178-8a98-6fb8ca85d459</t>
+          <t>30156.0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Maria da Glória Gomes dos Santos</t>
+          <t>6397272273720526</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7528312061751730</t>
+          <t>1fdc8cf7-1d32-42dc-9746-e0008dd8deeb</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -5725,16 +5665,16 @@
         <v>0.5</v>
       </c>
       <c r="G100" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -5746,10 +5686,10 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101">
@@ -5758,42 +5698,42 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>d8a85c00-7855-4747-9f35-86d0a0b2a788</t>
+          <t>30372.0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Meyre Ane Sampaio Moreira</t>
+          <t>3910104636654817</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>4962862887127732</t>
+          <t>a4ec0c71-e798-4cec-b3d8-41da719cf992</t>
         </is>
       </c>
       <c r="E101" t="n">
         <v>1.5</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G101" t="n">
         <v>0.5</v>
       </c>
       <c r="H101" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J101" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>0.75</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.5</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -5811,17 +5751,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>d8a23fd8-00c4-4bc8-8192-f5de59af313a</t>
+          <t>30243.0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Maria Luiza Oliveira dos Santos</t>
+          <t>1045094853713156</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>8587577174077201</t>
+          <t>ef950692-3aca-4c71-abdd-6a577e1d2efc</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -5837,25 +5777,25 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103">
@@ -5864,48 +5804,48 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>aa15dd5c-47d5-44cb-b967-1d463457218d</t>
+          <t>30285.0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Marines Carvalho das Neves Brito</t>
+          <t>1815171097453688</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6570550297726092</t>
+          <t>d597b9f2-790d-4bad-8fd9-85061736358e</t>
         </is>
       </c>
       <c r="E103" t="n">
         <v>1.5</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -5917,45 +5857,45 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>b5e8327d-3283-422e-99d3-76744adcea10</t>
+          <t>30217.0</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Martha Luciene Nogueira Barros Dantas</t>
+          <t>7725740432000469</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2076542004714578</t>
+          <t>e01b64a9-81e9-47f5-8e62-2223f04f23f4</t>
         </is>
       </c>
       <c r="E104" t="n">
         <v>1.5</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G104" t="n">
         <v>0.5</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104" t="n">
         <v>0.5</v>
@@ -5970,30 +5910,30 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>b58d8375-3086-448d-9c09-6edbd026526e</t>
+          <t>30433.0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Mila Almeida Midlej Silva</t>
+          <t>9488535852971361</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>9185071750290693</t>
+          <t>e4288f80-ba68-40e4-9fd4-79515cffb56c</t>
         </is>
       </c>
       <c r="E105" t="n">
         <v>1.5</v>
       </c>
       <c r="F105" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -6002,10 +5942,10 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -6014,7 +5954,7 @@
         <v>0.5</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106">
@@ -6023,52 +5963,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>54b2bed9-5dbb-4d1c-99be-1677341e6c16</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Milena Vergne de Abreu Oliveira e Sousa</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>4718746179676362</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0</v>
-      </c>
+          <t>30279.0</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6076,17 +5986,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>9713784a-526a-4dc3-8546-1a2948676af9</t>
+          <t>30006.0</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Mércia Ramos Xavier</t>
+          <t>2648645813273616</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>7797794535999769</t>
+          <t>4c7ab8fc-2f61-4259-8cc1-e2899a832a20</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -6099,7 +6009,7 @@
         <v>0.5</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -6117,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O107" t="n">
         <v>0.5</v>
@@ -6129,17 +6039,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>d1ae991e-784d-4310-ad14-7ed8b24b656a</t>
+          <t>30331.0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Nadivan dos Santos Costa</t>
+          <t>9086063273554635</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>8913942008827955</t>
+          <t>6f66de21-c98c-42c9-a1f1-6ad4140ec90c</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -6149,10 +6059,10 @@
         <v>0.5</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -6170,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -6182,17 +6092,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>63c213ad-9b6a-4bd7-b5cf-c6f18123a905</t>
+          <t>29997.0</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Nelsonivia Costa de Souza</t>
+          <t>4793477546510255</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>9217864013785900</t>
+          <t>2b1eb2f7-4656-484e-bc2b-c4104005b980</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -6211,22 +6121,22 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="110">
@@ -6235,17 +6145,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>fa0d8f01-12b2-49b6-8056-8ad64edcd2e5</t>
+          <t>30388.0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Neuza Maria Miranda dos Santos</t>
+          <t>3272895274133839</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0082112625423561</t>
+          <t>4c16b43f-06f1-4483-8715-7d65bdb89675</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -6255,10 +6165,10 @@
         <v>0.5</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H110" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -6267,19 +6177,19 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N110" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -6288,27 +6198,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>f0c98e61-b55f-4bc7-a88c-e6be1f57e23c</t>
+          <t>30185.0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Nívia Martins Menezes</t>
+          <t>8877652983745586</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3367242190409857</t>
+          <t>e21dd197-0db6-4f9f-9264-3a83c81ac3b6</t>
         </is>
       </c>
       <c r="E111" t="n">
         <v>1.5</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6320,19 +6230,19 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
         <v>1</v>
       </c>
-      <c r="L111" t="n">
-        <v>0.5</v>
-      </c>
       <c r="M111" t="n">
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O111" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="112">
@@ -6341,17 +6251,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ef950692-3aca-4c71-abdd-6a577e1d2efc</t>
+          <t>30316.0</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Raphael Akira Siqueira Ishibashi</t>
+          <t>9808498838256961</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1045094853713156</t>
+          <t>a5952b4d-e5d6-4168-995d-6a341c82995c</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -6367,13 +6277,13 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L112" t="n">
         <v>1</v>
@@ -6382,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O112" t="n">
         <v>0.5</v>
@@ -6394,24 +6304,24 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>e01b64a9-81e9-47f5-8e62-2223f04f23f4</t>
+          <t>29917.0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Rizolane Soares de Oliveira Brito</t>
+          <t>3052392024131728</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>7725740432000469</t>
+          <t>7eedd639-109a-4746-bafa-9db4490c02b8</t>
         </is>
       </c>
       <c r="E113" t="n">
         <v>1.5</v>
       </c>
       <c r="F113" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G113" t="n">
         <v>0.5</v>
@@ -6420,25 +6330,25 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
         <v>0.5</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114">
@@ -6447,27 +6357,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>e4288f80-ba68-40e4-9fd4-79515cffb56c</t>
+          <t>30216.0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Roque da Silva Lyrio</t>
+          <t>2575564610175228</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>9488535852971361</t>
+          <t>fa9fff2c-371e-41ed-94c6-4b8f9baca4bd</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G114" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -6479,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -6493,6 +6403,268 @@
       <c r="O114" t="n">
         <v>0.5</v>
       </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>30286.0</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2454311283646993</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>68fd83d0-4ca0-4482-8598-8836002f5507</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>30064.0</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1848411883987569</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>5c76b556-8693-48f1-bce8-5ab98defc4a3</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>29858.0</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>5371706875963852</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>bc619992-152f-43fb-b5dd-25207ad4e32f</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>30113.0</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>9602045653269355</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0e78c718-f35d-45bd-97ec-1b44ec2e6dfd</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>30339.0</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>9667769454455324</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
